--- a/data/trans_orig/IP07A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DCDC94-6351-4CF5-84C3-DF6AB9692F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD4A87A-F50F-4F47-9A0B-7B093E333496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65401B3D-E0EE-4789-A687-A8419F409D31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECBC0CCD-2F3C-46DE-BB4B-283259BA8867}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="456">
   <si>
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2007 (Tasa respuesta: 46,67%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>50,41%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>44,07%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>43,23%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>43,64%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -139,1270 +139,1273 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,82%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2016 (Tasa respuesta: 46,66%)</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
   </si>
   <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247F6F7B-237B-4056-A8A4-7BF7EE9DA536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447DE8FE-B36C-4EF8-83FE-0BEC116631DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2106,13 +2109,13 @@
         <v>642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2121,19 +2124,19 @@
         <v>1989</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2142,13 +2145,13 @@
         <v>667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2157,13 +2160,13 @@
         <v>647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2172,13 +2175,13 @@
         <v>1314</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2196,13 @@
         <v>47230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -2208,13 +2211,13 @@
         <v>50057</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -2223,18 +2226,18 @@
         <v>97287</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2246,13 +2249,13 @@
         <v>117612</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -2261,13 +2264,13 @@
         <v>105511</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>337</v>
@@ -2276,13 +2279,13 @@
         <v>223123</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2300,13 @@
         <v>96850</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>115</v>
@@ -2312,13 +2315,13 @@
         <v>78192</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>260</v>
@@ -2327,13 +2330,13 @@
         <v>175042</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2351,13 @@
         <v>17950</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -2363,13 +2366,13 @@
         <v>14140</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -2378,13 +2381,13 @@
         <v>32090</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2402,13 @@
         <v>1379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2414,13 +2417,13 @@
         <v>1912</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2429,19 +2432,19 @@
         <v>3291</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -2456,7 +2459,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2465,13 +2468,13 @@
         <v>778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2480,13 +2483,13 @@
         <v>1426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2504,13 @@
         <v>234438</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>300</v>
@@ -2516,13 +2519,13 @@
         <v>200534</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>654</v>
@@ -2531,18 +2534,18 @@
         <v>434972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2554,13 +2557,13 @@
         <v>25582</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2569,13 +2572,13 @@
         <v>28027</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2584,13 +2587,13 @@
         <v>53609</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2608,13 @@
         <v>24809</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2620,13 +2623,13 @@
         <v>27033</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -2635,13 +2638,13 @@
         <v>51842</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2659,13 @@
         <v>9308</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -2671,13 +2674,13 @@
         <v>9535</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2686,13 +2689,13 @@
         <v>18843</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,10 +2713,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2722,13 +2725,13 @@
         <v>683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2737,19 +2740,19 @@
         <v>683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2761,10 +2764,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2776,10 +2779,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2791,10 +2794,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2812,13 @@
         <v>59699</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -2824,13 +2827,13 @@
         <v>65278</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>182</v>
@@ -2839,13 +2842,13 @@
         <v>124977</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2865,13 @@
         <v>167002</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -2877,13 +2880,13 @@
         <v>158005</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>488</v>
@@ -2892,13 +2895,13 @@
         <v>325007</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2916,13 @@
         <v>142474</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>186</v>
@@ -2928,13 +2931,13 @@
         <v>126865</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>398</v>
@@ -2943,13 +2946,13 @@
         <v>269339</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2967,13 @@
         <v>27851</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -2979,13 +2982,13 @@
         <v>26337</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -2994,13 +2997,13 @@
         <v>54188</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3018,13 @@
         <v>2726</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3030,13 +3033,13 @@
         <v>3237</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3045,19 +3048,19 @@
         <v>5963</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -3066,13 +3069,13 @@
         <v>1315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3081,13 +3084,13 @@
         <v>1425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3096,13 +3099,13 @@
         <v>2739</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3120,13 @@
         <v>341367</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>469</v>
@@ -3132,13 +3135,13 @@
         <v>315869</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>982</v>
@@ -3147,18 +3150,18 @@
         <v>657236</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB19808C-480A-447E-A554-BFDAEE4E21E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4AF54B-BB01-462D-A192-7ED213CEAADB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,7 +3197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3301,13 +3304,13 @@
         <v>23896</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -3316,13 +3319,13 @@
         <v>34661</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>84</v>
@@ -3331,13 +3334,13 @@
         <v>58556</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3355,13 @@
         <v>18165</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -3367,13 +3370,13 @@
         <v>13320</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3382,13 +3385,13 @@
         <v>31486</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3406,13 @@
         <v>3166</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3418,13 +3421,13 @@
         <v>5102</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3433,13 +3436,13 @@
         <v>8268</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,10 +3460,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3472,10 +3475,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3487,16 +3490,16 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3508,10 +3511,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3523,10 +3526,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3538,10 +3541,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3559,13 @@
         <v>45227</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3571,13 +3574,13 @@
         <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
@@ -3586,18 +3589,18 @@
         <v>98310</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3609,13 +3612,13 @@
         <v>120239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3624,7 +3627,7 @@
         <v>92363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>206</v>
@@ -3645,7 +3648,7 @@
         <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3663,13 @@
         <v>84714</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -3675,10 +3678,10 @@
         <v>95948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>215</v>
@@ -3714,10 +3717,10 @@
         <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -3726,13 +3729,13 @@
         <v>12370</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -3741,13 +3744,13 @@
         <v>30713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3765,13 @@
         <v>3447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3777,13 +3780,13 @@
         <v>2222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3792,19 +3795,19 @@
         <v>5669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3819,7 +3822,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3828,13 +3831,13 @@
         <v>1250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3843,13 +3846,13 @@
         <v>1896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3867,13 @@
         <v>227389</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>292</v>
@@ -3879,13 +3882,13 @@
         <v>204153</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>624</v>
@@ -3894,18 +3897,18 @@
         <v>431542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3917,13 +3920,13 @@
         <v>33955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3932,13 +3935,13 @@
         <v>36472</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -3947,13 +3950,13 @@
         <v>70426</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3971,13 @@
         <v>21807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3983,13 +3986,13 @@
         <v>17331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -3998,13 +4001,13 @@
         <v>39138</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4022,13 @@
         <v>672</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4034,13 +4037,13 @@
         <v>5686</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4052,10 +4055,10 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4073,13 @@
         <v>1499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4085,13 +4088,13 @@
         <v>1494</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4100,19 +4103,19 @@
         <v>2993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4124,10 +4127,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4136,13 +4139,13 @@
         <v>675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4151,7 +4154,7 @@
         <v>675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
@@ -4172,13 +4175,13 @@
         <v>57933</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -4187,13 +4190,13 @@
         <v>61658</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -4202,13 +4205,13 @@
         <v>119590</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,10 +4261,10 @@
         <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4279,13 @@
         <v>124687</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -4291,13 +4294,13 @@
         <v>126599</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>362</v>
@@ -4306,13 +4309,13 @@
         <v>251286</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4330,13 @@
         <v>22181</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -4342,7 +4345,7 @@
         <v>23158</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>296</v>
@@ -4381,10 +4384,10 @@
         <v>301</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4393,13 +4396,13 @@
         <v>3715</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4408,19 +4411,19 @@
         <v>8662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -4429,13 +4432,13 @@
         <v>646</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4444,13 +4447,13 @@
         <v>1925</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4459,13 +4462,13 @@
         <v>2571</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4483,13 @@
         <v>330548</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>453</v>
@@ -4495,13 +4498,13 @@
         <v>318893</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>934</v>
@@ -4510,18 +4513,18 @@
         <v>649442</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4540,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0C2A0D-5DED-4177-BC31-222B3B3E4836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDECD5B-2F84-48D3-B685-CA872EF6A1D2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4557,7 +4560,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4664,13 +4667,13 @@
         <v>12334</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4679,7 +4682,7 @@
         <v>16596</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>317</v>
@@ -4751,7 +4754,7 @@
         <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4769,13 @@
         <v>3466</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4781,13 +4784,13 @@
         <v>2726</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4796,13 +4799,13 @@
         <v>6193</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4820,13 @@
         <v>3158</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4835,10 +4838,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4847,19 +4850,19 @@
         <v>3158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4868,13 +4871,13 @@
         <v>1333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4886,10 +4889,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4898,13 +4901,13 @@
         <v>1333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4922,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -4934,13 +4937,13 @@
         <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4949,18 +4952,18 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4972,13 +4975,13 @@
         <v>137640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>201</v>
@@ -4987,13 +4990,13 @@
         <v>140809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>389</v>
@@ -5002,13 +5005,13 @@
         <v>278448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5026,13 @@
         <v>81456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -5038,13 +5041,13 @@
         <v>87531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -5053,13 +5056,13 @@
         <v>168987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5077,13 @@
         <v>18286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -5089,13 +5092,13 @@
         <v>14372</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -5104,13 +5107,13 @@
         <v>32658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5128,13 @@
         <v>2820</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5140,13 +5143,13 @@
         <v>3278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5155,19 +5158,19 @@
         <v>6098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -5176,13 +5179,13 @@
         <v>1508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5191,13 +5194,13 @@
         <v>1481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5206,13 +5209,13 @@
         <v>2988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5230,13 @@
         <v>241710</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>356</v>
@@ -5242,13 +5245,13 @@
         <v>247471</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>686</v>
@@ -5257,18 +5260,18 @@
         <v>489180</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5280,13 +5283,13 @@
         <v>50721</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5295,13 +5298,13 @@
         <v>38940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -5310,13 +5313,13 @@
         <v>89660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5334,13 @@
         <v>19775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5346,13 +5349,13 @@
         <v>29757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5361,13 +5364,13 @@
         <v>49531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5385,13 @@
         <v>4558</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5397,13 +5400,13 @@
         <v>3584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5412,13 +5415,13 @@
         <v>8141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>407</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5436,13 @@
         <v>636</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5448,13 +5451,13 @@
         <v>638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5463,19 +5466,19 @@
         <v>1273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -5484,13 +5487,13 @@
         <v>713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5499,13 +5502,13 @@
         <v>836</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5514,13 +5517,13 @@
         <v>1549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5538,13 @@
         <v>76402</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -5550,13 +5553,13 @@
         <v>73754</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>209</v>
@@ -5565,13 +5568,13 @@
         <v>150155</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5591,13 @@
         <v>200694</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>280</v>
@@ -5603,13 +5606,13 @@
         <v>196345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>555</v>
@@ -5618,13 +5621,13 @@
         <v>397039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5642,13 @@
         <v>117579</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -5654,13 +5657,13 @@
         <v>129779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -5669,13 +5672,13 @@
         <v>247358</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>436</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5693,13 @@
         <v>26310</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -5705,13 +5708,13 @@
         <v>20682</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -5720,13 +5723,13 @@
         <v>46992</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5744,13 @@
         <v>6613</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>237</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5756,13 +5759,13 @@
         <v>3916</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5771,10 +5774,10 @@
         <v>10529</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>450</v>
@@ -5783,7 +5786,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -5792,13 +5795,13 @@
         <v>3554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5807,13 +5810,13 @@
         <v>2317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5822,13 +5825,13 @@
         <v>5870</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5846,13 @@
         <v>354749</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>505</v>
@@ -5858,13 +5861,13 @@
         <v>353039</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>992</v>
@@ -5873,18 +5876,18 @@
         <v>707788</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD4A87A-F50F-4F47-9A0B-7B093E333496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBFE943-7EE1-48E6-A91E-58DA26E01CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECBC0CCD-2F3C-46DE-BB4B-283259BA8867}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3E2AC996-E582-4BD6-B047-5EDB5D594C46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="454">
   <si>
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2007 (Tasa respuesta: 46,67%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1339 +73,1333 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
     <t>50,41%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
     <t>44,07%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
   </si>
   <si>
     <t>43,64%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2016 (Tasa respuesta: 46,66%)</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2016 (Tasa respuesta: 46,66%)</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>1,72%</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447DE8FE-B36C-4EF8-83FE-0BEC116631DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC394242-D44F-492F-BD2A-E04A0C112EC1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,10 +1929,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>23808</v>
+        <v>24467</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1950,10 +1944,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>24467</v>
+        <v>23808</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1986,10 +1980,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>20815</v>
+        <v>21640</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2001,10 +1995,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>21640</v>
+        <v>20815</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2037,10 +2031,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>593</v>
+        <v>2662</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2052,10 +2046,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2662</v>
+        <v>593</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2088,34 +2082,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1347</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>1347</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2124,49 +2118,49 @@
         <v>1989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2175,10 +2169,10 @@
         <v>1314</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>53</v>
@@ -2190,25 +2184,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50057</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50057</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2243,10 +2237,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7">
-        <v>117612</v>
+        <v>105511</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -2258,10 +2252,10 @@
         <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="I10" s="7">
-        <v>105511</v>
+        <v>117612</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>59</v>
@@ -2270,7 +2264,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M10" s="7">
         <v>337</v>
@@ -2279,13 +2273,13 @@
         <v>223123</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,34 +2288,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>115</v>
+      </c>
+      <c r="D11" s="7">
+        <v>78192</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="7">
         <v>145</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>96850</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>78192</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>260</v>
@@ -2330,13 +2324,13 @@
         <v>175042</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,34 +2339,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14140</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7">
         <v>28</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>17950</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14140</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -2381,13 +2375,13 @@
         <v>32090</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,34 +2390,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1379</v>
+        <v>1912</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1912</v>
+        <v>1379</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2432,49 +2426,49 @@
         <v>3291</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>647</v>
+        <v>778</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>778</v>
+        <v>647</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2483,13 +2477,13 @@
         <v>1426</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,25 +2492,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>300</v>
+      </c>
+      <c r="D15" s="7">
+        <v>200534</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>354</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>234438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>300</v>
-      </c>
-      <c r="I15" s="7">
-        <v>200534</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -2545,40 +2539,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28027</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="7">
         <v>38</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>25582</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="7">
-        <v>40</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28027</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2587,13 +2581,13 @@
         <v>53609</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,34 +2596,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
         <v>36</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>24809</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>39</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27033</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -2638,13 +2632,13 @@
         <v>51842</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,31 +2650,31 @@
         <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>9308</v>
+        <v>9535</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>9535</v>
+        <v>9308</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2689,13 +2683,13 @@
         <v>18843</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,34 +2698,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>683</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>683</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2740,19 +2734,19 @@
         <v>683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2761,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2776,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2791,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,25 +2800,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>94</v>
+      </c>
+      <c r="D21" s="7">
+        <v>65278</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>88</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>59699</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>94</v>
-      </c>
-      <c r="I21" s="7">
-        <v>65278</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -2859,34 +2853,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>236</v>
+      </c>
+      <c r="D22" s="7">
+        <v>158005</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="7">
         <v>252</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>167002</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="H22" s="7">
-        <v>236</v>
-      </c>
-      <c r="I22" s="7">
-        <v>158005</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>488</v>
@@ -2895,13 +2889,13 @@
         <v>325007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,34 +2904,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>186</v>
+      </c>
+      <c r="D23" s="7">
+        <v>126865</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="7">
         <v>212</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>142474</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="7">
-        <v>186</v>
-      </c>
-      <c r="I23" s="7">
-        <v>126865</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>398</v>
@@ -2946,13 +2940,13 @@
         <v>269339</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,34 +2955,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7">
+        <v>26337</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="7">
         <v>43</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>27851</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="7">
-        <v>40</v>
-      </c>
-      <c r="I24" s="7">
-        <v>26337</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -2997,13 +2991,13 @@
         <v>54188</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,34 +3006,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3237</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2726</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3237</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3048,49 +3042,49 @@
         <v>5963</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1315</v>
+        <v>1425</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1425</v>
+        <v>1315</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3099,13 +3093,13 @@
         <v>2739</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,25 +3108,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>469</v>
+      </c>
+      <c r="D27" s="7">
+        <v>315869</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>513</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>341367</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>469</v>
-      </c>
-      <c r="I27" s="7">
-        <v>315869</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -3161,7 +3155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4AF54B-BB01-462D-A192-7ED213CEAADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469E4E0C-7946-4A9F-93C1-4A8D3A69C1ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3298,34 +3292,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7">
+        <v>34661</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="7">
         <v>34</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>23896</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="7">
-        <v>50</v>
-      </c>
-      <c r="I4" s="7">
-        <v>34661</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>84</v>
@@ -3334,13 +3328,13 @@
         <v>58556</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,34 +3343,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13320</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>18165</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="7">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13320</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3385,13 +3379,13 @@
         <v>31486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,34 +3394,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5102</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3166</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5102</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3436,13 +3430,13 @@
         <v>8268</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3472,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3487,19 +3481,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3508,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3523,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3538,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,25 +3547,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45227</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -3606,34 +3600,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>130</v>
+      </c>
+      <c r="D10" s="7">
+        <v>92363</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
         <v>177</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>120239</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="7">
-        <v>130</v>
-      </c>
-      <c r="I10" s="7">
-        <v>92363</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -3642,13 +3636,13 @@
         <v>212601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,34 +3651,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>139</v>
+      </c>
+      <c r="D11" s="7">
+        <v>95948</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="7">
         <v>123</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>84714</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="7">
-        <v>139</v>
-      </c>
-      <c r="I11" s="7">
-        <v>95948</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>262</v>
@@ -3693,13 +3687,13 @@
         <v>180663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,34 +3702,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12370</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="7">
         <v>26</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>18343</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12370</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -3744,13 +3738,13 @@
         <v>30713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,34 +3753,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2222</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3447</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2222</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3795,49 +3789,49 @@
         <v>5669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>646</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1250</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3846,13 +3840,13 @@
         <v>1896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,25 +3855,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>292</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204153</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>332</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>227389</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>292</v>
-      </c>
-      <c r="I15" s="7">
-        <v>204153</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -3908,7 +3902,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3917,31 +3911,31 @@
         <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>33955</v>
+        <v>36472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
       </c>
       <c r="I16" s="7">
-        <v>36472</v>
+        <v>33955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -3950,13 +3944,13 @@
         <v>70426</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,34 +3959,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17331</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="7">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>21807</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17331</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4001,13 +3995,13 @@
         <v>39138</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,34 +4010,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5686</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>672</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5686</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4052,13 +4046,13 @@
         <v>6358</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,31 +4064,31 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4103,49 +4097,49 @@
         <v>2993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>675</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>675</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4154,13 +4148,13 @@
         <v>675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,25 +4163,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>86</v>
+      </c>
+      <c r="D21" s="7">
+        <v>61658</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>86</v>
-      </c>
-      <c r="I21" s="7">
-        <v>61658</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -4222,34 +4216,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>231</v>
+      </c>
+      <c r="D22" s="7">
+        <v>163495</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="7">
         <v>262</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>178088</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H22" s="7">
-        <v>231</v>
-      </c>
-      <c r="I22" s="7">
-        <v>163495</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>493</v>
@@ -4258,13 +4252,13 @@
         <v>341584</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,34 +4267,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>183</v>
+      </c>
+      <c r="D23" s="7">
+        <v>126599</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="7">
         <v>179</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>124687</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="H23" s="7">
-        <v>183</v>
-      </c>
-      <c r="I23" s="7">
-        <v>126599</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>362</v>
@@ -4309,13 +4303,13 @@
         <v>251286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,34 +4318,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23158</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" s="7">
         <v>32</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>22181</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H24" s="7">
-        <v>31</v>
-      </c>
-      <c r="I24" s="7">
-        <v>23158</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>63</v>
@@ -4360,13 +4354,13 @@
         <v>45339</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,34 +4369,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3715</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4946</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3715</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4411,49 +4405,49 @@
         <v>8662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1925</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>646</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1925</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4462,13 +4456,13 @@
         <v>2571</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,25 +4471,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>453</v>
+      </c>
+      <c r="D27" s="7">
+        <v>318893</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>481</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>330548</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>453</v>
-      </c>
-      <c r="I27" s="7">
-        <v>318893</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -4524,7 +4518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4543,7 +4537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDECD5B-2F84-48D3-B685-CA872EF6A1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078F85F1-92A3-40B1-9006-511DC006FEBF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4560,7 +4554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4661,34 +4655,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16596</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="7">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>12334</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16596</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4697,13 +4691,13 @@
         <v>28930</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,34 +4706,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12492</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16347</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>12492</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4748,13 +4742,13 @@
         <v>28840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,34 +4757,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2726</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3466</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2726</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4799,13 +4793,13 @@
         <v>6193</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,34 +4808,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>3158</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4850,49 +4844,49 @@
         <v>3158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1333</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4901,13 +4895,13 @@
         <v>1333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,25 +4910,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -4969,34 +4963,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>201</v>
+      </c>
+      <c r="D10" s="7">
+        <v>140809</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="7">
         <v>188</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>137640</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="H10" s="7">
-        <v>201</v>
-      </c>
-      <c r="I10" s="7">
-        <v>140809</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>389</v>
@@ -5005,13 +4999,13 @@
         <v>278448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,34 +5014,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>128</v>
+      </c>
+      <c r="D11" s="7">
+        <v>87531</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H11" s="7">
         <v>110</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>81456</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H11" s="7">
-        <v>128</v>
-      </c>
-      <c r="I11" s="7">
-        <v>87531</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -5056,13 +5050,13 @@
         <v>168987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,34 +5065,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14372</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H12" s="7">
         <v>26</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>18286</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H12" s="7">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14372</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -5107,13 +5101,13 @@
         <v>32658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,31 +5119,31 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2820</v>
+        <v>3278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>3278</v>
+        <v>2820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>312</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5158,49 +5152,49 @@
         <v>6098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1508</v>
+        <v>1481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1481</v>
+        <v>1508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5209,13 +5203,13 @@
         <v>2988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,25 +5218,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>356</v>
+      </c>
+      <c r="D15" s="7">
+        <v>247471</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>330</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>241710</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>356</v>
-      </c>
-      <c r="I15" s="7">
-        <v>247471</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -5271,40 +5265,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38940</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="7">
         <v>70</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>50721</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H16" s="7">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38940</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -5313,13 +5307,13 @@
         <v>89660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,34 +5322,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
+        <v>29757</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H17" s="7">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>19775</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H17" s="7">
-        <v>41</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29757</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5364,13 +5358,13 @@
         <v>49531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,34 +5373,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3584</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4558</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3584</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5415,13 +5409,13 @@
         <v>8141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>410</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,31 +5427,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5466,49 +5460,49 @@
         <v>1273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>713</v>
+        <v>836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>836</v>
+        <v>713</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5517,13 +5511,13 @@
         <v>1549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,25 +5526,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>103</v>
+      </c>
+      <c r="D21" s="7">
+        <v>73754</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>106</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>76402</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>103</v>
-      </c>
-      <c r="I21" s="7">
-        <v>73754</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -5585,34 +5579,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>280</v>
+      </c>
+      <c r="D22" s="7">
+        <v>196345</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" s="7">
         <v>275</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>200694</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H22" s="7">
-        <v>280</v>
-      </c>
-      <c r="I22" s="7">
-        <v>196345</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>555</v>
@@ -5621,13 +5615,13 @@
         <v>397039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,34 +5630,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>187</v>
+      </c>
+      <c r="D23" s="7">
+        <v>129779</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H23" s="7">
         <v>161</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>117579</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H23" s="7">
-        <v>187</v>
-      </c>
-      <c r="I23" s="7">
-        <v>129779</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>433</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -5672,13 +5666,13 @@
         <v>247358</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>283</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,34 +5681,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20682</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" s="7">
         <v>37</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>26310</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="7">
-        <v>30</v>
-      </c>
-      <c r="I24" s="7">
-        <v>20682</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -5723,13 +5717,13 @@
         <v>46992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,34 +5732,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3916</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>6613</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3916</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5774,49 +5768,49 @@
         <v>10529</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2317</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3554</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2317</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5825,13 +5819,13 @@
         <v>5870</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>312</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,25 +5834,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>505</v>
+      </c>
+      <c r="D27" s="7">
+        <v>353039</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>487</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>354749</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>505</v>
-      </c>
-      <c r="I27" s="7">
-        <v>353039</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -5887,7 +5881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
